--- a/python-module/data/attendance_2025-11-19.xlsx
+++ b/python-module/data/attendance_2025-11-19.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Attendance" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Attendance Report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,80 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="009C6500"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="009C0006"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005B9BD5"/>
+        <bgColor rgb="005B9BD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
+        <bgColor rgb="00FFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7E6E6"/>
+        <bgColor rgb="00E7E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +106,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,99 +506,203 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ATTENDANCE REPORT - 2025-11-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>S.No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>IN Time</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>OUT Time</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Harini S</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>09:10:28</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>14:58:32</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>HALF DAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Harshini Ganesh</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>09:09:44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>HALF DAY</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Harshini Meharaj</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>Total Students:</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Present:</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>Half Day:</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Harini S</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>09:10:28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HALF DAY</t>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>Absent:</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>Attendance %:</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>66.7%</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>